--- a/Module 19 - Taxation Current Tax.xlsx
+++ b/Module 19 - Taxation Current Tax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82FD3B98-6F61-42A6-A792-300D159A4272}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{635C70C3-F6A6-4A04-834D-E0B92CAC4426}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="4005" windowWidth="21600" windowHeight="11385" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="4815" yWindow="-17115" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Main</t>
   </si>
@@ -46,6 +46,129 @@
   </si>
   <si>
     <t>Module 19</t>
+  </si>
+  <si>
+    <t>current tax is not always the profits times the rates, although deferred tax will go some way to address this</t>
+  </si>
+  <si>
+    <t>IAS 12</t>
+  </si>
+  <si>
+    <t>Use 19% as the tax rates unless stated otherwise in the question</t>
+  </si>
+  <si>
+    <t>unpaid tax is a liab</t>
+  </si>
+  <si>
+    <t>overpaid tax is and asset</t>
+  </si>
+  <si>
+    <t>tax benefit which can be carried back to a prior period is a tax asset</t>
+  </si>
+  <si>
+    <t>adjustments to RE as a result of error or change in accounting policy</t>
+  </si>
+  <si>
+    <t>amount arising on the recognition of the equity component of a compoud instrument</t>
+  </si>
+  <si>
+    <t>Ias 12 refes to corporation tax as corporate income tax or sometimes just income tax</t>
+  </si>
+  <si>
+    <t>assume all companies are on quarterly payment</t>
+  </si>
+  <si>
+    <t>Castle Ltd</t>
+  </si>
+  <si>
+    <t>estimated CT liab</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>cr - RE</t>
+  </si>
+  <si>
+    <t>being payment of each instalment on 14 July 2012 and on 14 October 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dr - HMRC </t>
+  </si>
+  <si>
+    <t>cr - accrued tax expense</t>
+  </si>
+  <si>
+    <t>Dr - HMRC payment</t>
+  </si>
+  <si>
+    <t>being year-end accrual for third and fourth instalments combined</t>
+  </si>
+  <si>
+    <t>Statement of financial position (extracts)</t>
+  </si>
+  <si>
+    <t>current liab</t>
+  </si>
+  <si>
+    <t>current tac payable</t>
+  </si>
+  <si>
+    <t>PBT</t>
+  </si>
+  <si>
+    <t>taxation</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>Estimate CT at year end</t>
+  </si>
+  <si>
+    <t>then the final tax expense when FS completed</t>
+  </si>
+  <si>
+    <t>then an under/over provision arises</t>
+  </si>
+  <si>
+    <t>as the tax return does not have to be filed until 12m after year end</t>
+  </si>
+  <si>
+    <t>the adjustment is made to the PY expence through the CY SPL</t>
+  </si>
+  <si>
+    <t>under  - additional expense to tax</t>
+  </si>
+  <si>
+    <t>over - reduce the tax expene (CY SPL) by over prov'n amount</t>
+  </si>
+  <si>
+    <t>cr - tax provision</t>
+  </si>
+  <si>
+    <t>dr - SPL tax</t>
+  </si>
+  <si>
+    <t>being correction to under-provision for the year ended 31/12/2022</t>
+  </si>
+  <si>
+    <t>current tax payable</t>
+  </si>
+  <si>
+    <t>instalment</t>
+  </si>
+  <si>
+    <t>dr - SPL - taxation</t>
+  </si>
+  <si>
+    <t>cr - current tax payable</t>
+  </si>
+  <si>
+    <t>carry back tax losses are and asset so are recognised as a current asset</t>
+  </si>
+  <si>
+    <t>and the income is put through tto SPL taxation</t>
   </si>
 </sst>
 </file>
@@ -84,7 +207,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,15 +215,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -117,6 +254,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>612912</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29271</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27DA83C-1CF3-434F-5C0C-BC30CC43D4EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612912" y="2998304"/>
+          <a:ext cx="3677479" cy="476532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579723</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBAAF223-A19E-B1AE-B16A-1C53804F551B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3810001"/>
+          <a:ext cx="3627723" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>150394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>55826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79252A46-D280-3058-A581-CE0FB8929B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="11294644"/>
+          <a:ext cx="3657600" cy="515032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>88012</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28641DA5-F2F9-AFD4-9D58-912594E650A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="14039851"/>
+          <a:ext cx="3657599" cy="1154811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>86494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EFD781-DFA5-55FC-F00D-352D83DE2882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612321" y="15906751"/>
+          <a:ext cx="3673929" cy="2930386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,10 +805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -464,11 +826,313 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3">
+        <v>45121</v>
+      </c>
+      <c r="D40" s="1">
+        <f>+$E$39/4</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C41" s="3">
+        <v>45213</v>
+      </c>
+      <c r="D41" s="1">
+        <f>+$E$39/4</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="1">
+        <f>SUM(D40:D41)</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="1">
+        <f>+E45</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1">
+        <f>+E45</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="1">
+        <f>+E49</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="4">
+        <v>44926</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="1">
+        <f>+F50</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="1">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-3000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="5">
+        <f>SUM(E60:E61)</f>
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="1">
+        <v>2</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D85" s="1">
+        <f>+D84/4*4000</f>
+        <v>2000</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D85)</f>
+        <v>=+D84/4*4000</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="1">
+        <f>+D85</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C88" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88" s="1">
+        <f>+E87</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{81BBD927-8A14-4875-AC95-7FE6721C373F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Module 19 - Taxation Current Tax.xlsx
+++ b/Module 19 - Taxation Current Tax.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{635C70C3-F6A6-4A04-834D-E0B92CAC4426}"/>
+  <xr:revisionPtr revIDLastSave="421" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63337374-F260-43CD-8F0F-B3E53F61AD73}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="-17115" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="0" yWindow="1830" windowWidth="28800" windowHeight="14370" firstSheet="1" activeTab="5" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Module 19" sheetId="2" r:id="rId2"/>
+    <sheet name="WSE19.1" sheetId="3" r:id="rId3"/>
+    <sheet name="WSE19.2" sheetId="4" r:id="rId4"/>
+    <sheet name="WSE19.3" sheetId="5" r:id="rId5"/>
+    <sheet name="WSE19.4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>Main</t>
   </si>
@@ -169,6 +173,180 @@
   </si>
   <si>
     <t>and the income is put through tto SPL taxation</t>
+  </si>
+  <si>
+    <t>commencement</t>
+  </si>
+  <si>
+    <t>CT liab (est.)</t>
+  </si>
+  <si>
+    <t>YE</t>
+  </si>
+  <si>
+    <t>actual tax paid</t>
+  </si>
+  <si>
+    <t>dr - SPL taxation</t>
+  </si>
+  <si>
+    <t>being third and fourth instalments of the corporation tax liability for the YE 31/03/2023</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>being correction to under prov'n of corporation tax liability for the year ended 31/03/2023 in the CY SPL</t>
+  </si>
+  <si>
+    <t>Instalments for the year ended 31/03/2024</t>
+  </si>
+  <si>
+    <t>per quarter</t>
+  </si>
+  <si>
+    <t>Instalments for the year ended 31/03/2023</t>
+  </si>
+  <si>
+    <t>being accrual of the third and fourtht instalments of the corporation tax liability for the year ended 31/03/2024</t>
+  </si>
+  <si>
+    <t>Arkady</t>
+  </si>
+  <si>
+    <t>FY2022</t>
+  </si>
+  <si>
+    <t>CY profit</t>
+  </si>
+  <si>
+    <t>dr - current tax payable</t>
+  </si>
+  <si>
+    <t>cr - SPL taxation</t>
+  </si>
+  <si>
+    <t>being correction to over-provisoin of PY CT liability</t>
+  </si>
+  <si>
+    <t>Boomers Cruises</t>
+  </si>
+  <si>
+    <t>at year end</t>
+  </si>
+  <si>
+    <t>payments</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>CT payment</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>cr</t>
+  </si>
+  <si>
+    <t>interest expense</t>
+  </si>
+  <si>
+    <t>interest income</t>
+  </si>
+  <si>
+    <t>cr - SPL - taxation</t>
+  </si>
+  <si>
+    <t>being correction to payments of third and fourth instalments for the year ended 31/10/2018</t>
+  </si>
+  <si>
+    <t>taxatioin</t>
+  </si>
+  <si>
+    <t>over-provisoin</t>
+  </si>
+  <si>
+    <t>cr  -SPL finance incoem</t>
+  </si>
+  <si>
+    <t>being correction to interest received on overpayments</t>
+  </si>
+  <si>
+    <t>dr - SPL finance costs</t>
+  </si>
+  <si>
+    <t>cr  -SPL taxation</t>
+  </si>
+  <si>
+    <t>being correction to interest on late payment of corporation tax</t>
+  </si>
+  <si>
+    <t>cr - SPL Taxation</t>
+  </si>
+  <si>
+    <t>beign release of overprovision for the year ended 31/10/2018</t>
+  </si>
+  <si>
+    <t>Orchids and Roses</t>
+  </si>
+  <si>
+    <t>Amount paid in the year</t>
+  </si>
+  <si>
+    <t>Opening creditor</t>
+  </si>
+  <si>
+    <t>over - provision</t>
+  </si>
+  <si>
+    <t>dr - current tax payables</t>
+  </si>
+  <si>
+    <t>cr - current tax expense</t>
+  </si>
+  <si>
+    <t>being release of overprovision of current tax expense for YE 31/10/2018</t>
+  </si>
+  <si>
+    <t>being correction to corporation tax paid for YE 31/10/2018</t>
+  </si>
+  <si>
+    <t>cr - finance income</t>
+  </si>
+  <si>
+    <t>being interest on corporation tax payment and receipt reallocate</t>
+  </si>
+  <si>
+    <t>Taxable profit / (loss)</t>
+  </si>
+  <si>
+    <t>PL profit</t>
+  </si>
+  <si>
+    <t>JE3`</t>
+  </si>
+  <si>
+    <t>JE 3</t>
+  </si>
+  <si>
+    <t>Corporation tax refund due to loss carried back</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>CT paid to account of £32 for YE 31/10/2019 shall also be refunded</t>
+  </si>
+  <si>
+    <t>total corporation tax receivable</t>
   </si>
 </sst>
 </file>
@@ -231,13 +409,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -470,6 +650,104 @@
         <a:xfrm>
           <a:off x="612321" y="15906751"/>
           <a:ext cx="3673929" cy="2930386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>502228</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>13143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BF5756-6C0D-AAE8-643A-776B806A7667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="606136" y="190500"/>
+          <a:ext cx="4139047" cy="3061143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63288932-4CB1-B2C1-A1A3-D55FE23E4E68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="2767854"/>
+          <a:ext cx="3630706" cy="4092756"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1135,4 +1413,1002 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834E91D4-F20B-416E-BD17-5D89A5DE4047}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="4">
+        <v>45016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5">
+        <f>+D12/4</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1">
+        <f>+D13*2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1">
+        <f>+D13*2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1">
+        <f>+E22</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="5">
+        <f>+D27/4</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1">
+        <f>+D28*2</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="1">
+        <f>+D28*2</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4FAC9C56-3B6F-4A3E-9807-C434B6CBB661}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAA8EF9-1A2A-49B0-A74D-76D6EA0E67B0}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="1">
+        <f>+C3*0.19</f>
+        <v>532</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D8)</f>
+        <v>=+C3*0.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5">
+        <f>+D8/4</f>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1">
+        <f>+D9*2</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1">
+        <f>+D9*2</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F0EE909D-FF45-45D8-995C-07450FFF47E1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB747B5-4E7B-44F4-8069-1F8DB99CDDBF}">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="A27:XFD37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="1">
+        <v>196</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="1">
+        <f>+C24-C25</f>
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="4">
+        <v>43404</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1">
+        <v>191</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="4">
+        <v>43039</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1">
+        <v>21</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="4">
+        <v>43769</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="1">
+        <v>42</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="5">
+        <f>+D32-D33+D34</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="4">
+        <v>43039</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="1">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="D39" s="1">
+        <f>+D38-D37</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="1">
+        <f>+D32</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="1">
+        <f>+E41</f>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="1">
+        <f>+C24-D35</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="1">
+        <f>+E45</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="1">
+        <f>+D37</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="1">
+        <f>+E49</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="1">
+        <f>+D38</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" s="1">
+        <f>+E53</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{669F80EF-EDEC-49D6-A27B-15270EE36C29}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5B0155-9DA3-41ED-8DA0-E07EB4C347E3}">
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1">
+        <v>195</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1">
+        <v>177</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="4">
+        <v>43465</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1">
+        <v>170</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="4">
+        <v>43465</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1">
+        <f>87-40</f>
+        <v>47</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="4">
+        <v>43769</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1">
+        <v>80</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="5">
+        <f>+D38-D39+D40</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="1">
+        <f>+C35</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="1">
+        <f>+E44-E43</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="1">
+        <f>+E45</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="1">
+        <f>+E47</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="1">
+        <f>+E43</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="1">
+        <f>+E51</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="1">
+        <f>+D40</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="1">
+        <f>+D74</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="1">
+        <f>+D75</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="1">
+        <f>-D76</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="1">
+        <f>+D75</f>
+        <v>32</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="1">
+        <f>+F56</f>
+        <v>40</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1">
+        <f>+E55</f>
+        <v>80</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="1">
+        <f>+F58</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="6">
+        <f>+E66*E67</f>
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="6">
+        <f>+E68+E62</f>
+        <v>33.520000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="4">
+        <v>43465</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="1">
+        <v>40</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="1">
+        <v>32</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+      <c r="D76" s="1">
+        <f>+D75-D74</f>
+        <v>-8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A4CC4316-403F-44B9-B171-4AA285666A4A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Module 19 - Taxation Current Tax.xlsx
+++ b/Module 19 - Taxation Current Tax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="421" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63337374-F260-43CD-8F0F-B3E53F61AD73}"/>
+  <xr:revisionPtr revIDLastSave="451" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A8CFC48-091C-4BFB-9D3E-88F5C6CC7629}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1830" windowWidth="28800" windowHeight="14370" firstSheet="1" activeTab="5" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="0" yWindow="2325" windowWidth="28800" windowHeight="14370" firstSheet="1" activeTab="5" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="WSE19.2" sheetId="4" r:id="rId4"/>
     <sheet name="WSE19.3" sheetId="5" r:id="rId5"/>
     <sheet name="WSE19.4" sheetId="6" r:id="rId6"/>
+    <sheet name="WSE19.4 (2)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
   <si>
     <t>Main</t>
   </si>
@@ -347,6 +348,21 @@
   </si>
   <si>
     <t>total corporation tax receivable</t>
+  </si>
+  <si>
+    <t>b/f balance</t>
+  </si>
+  <si>
+    <t>the CY payments go through PL</t>
+  </si>
+  <si>
+    <t>overpaid tax - the expected too much in PY</t>
+  </si>
+  <si>
+    <t>dr - current tax expense</t>
+  </si>
+  <si>
+    <t>dr - finance cost</t>
   </si>
 </sst>
 </file>
@@ -720,8 +736,8 @@
       <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558363</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>81052</xdr:rowOff>
     </xdr:to>
@@ -748,6 +764,55 @@
         <a:xfrm>
           <a:off x="605118" y="2767854"/>
           <a:ext cx="3630706" cy="4092756"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3558BC56-337C-46F1-8A84-54642B3C0B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="448236"/>
+          <a:ext cx="3657600" cy="3976216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,7 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834E91D4-F20B-416E-BD17-5D89A5DE4047}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1615,7 +1680,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1744,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB747B5-4E7B-44F4-8069-1F8DB99CDDBF}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="A27:XFD37"/>
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2058,10 +2123,400 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5B0155-9DA3-41ED-8DA0-E07EB4C347E3}">
+  <dimension ref="A1:F91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1">
+        <v>195</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1">
+        <v>177</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="4">
+        <v>43465</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="1">
+        <v>170</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="4">
+        <v>43465</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="1">
+        <f>87-40</f>
+        <v>47</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="4">
+        <v>43769</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1">
+        <v>80</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="5">
+        <f>+D38-D39+D40</f>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="1">
+        <f>+C35</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="1">
+        <f>+E44-E43</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="1">
+        <f>+E45</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="1">
+        <f>+E47</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" s="1">
+        <f>+E43</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F52" s="1">
+        <f>+E51</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="1">
+        <f>+D40</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="1">
+        <f>+F57</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="1">
+        <f>+D74</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="1">
+        <f>+D75</f>
+        <v>32</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="1">
+        <f>+F57</f>
+        <v>40</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1">
+        <f>+E55</f>
+        <v>80</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="1">
+        <f>+E62+E63-E64</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" s="6">
+        <f>+E66*E67</f>
+        <v>-1.52</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="6">
+        <f>+E68+E62</f>
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="4">
+        <v>43465</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="1">
+        <v>40</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" s="1">
+        <v>32</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+      <c r="D76" s="1">
+        <f>+D75-D74</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="1">
+        <f>+D84-D85</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A4CC4316-403F-44B9-B171-4AA285666A4A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AFD7D2-C6B7-4B01-96C5-98FEF86BDC42}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2093,7 +2548,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="1">
-        <v>195</v>
+        <v>1051600</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>69</v>
@@ -2104,7 +2559,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>177</v>
+        <v>2103200</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>70</v>
@@ -2181,7 +2636,7 @@
       </c>
       <c r="E44" s="1">
         <f>+C35</f>
-        <v>177</v>
+        <v>2103200</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.2">
@@ -2190,7 +2645,7 @@
       </c>
       <c r="E45" s="1">
         <f>+E44-E43</f>
-        <v>7</v>
+        <v>2103030</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.2">
@@ -2199,7 +2654,7 @@
       </c>
       <c r="E47" s="1">
         <f>+E45</f>
-        <v>7</v>
+        <v>2103030</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.2">
@@ -2208,7 +2663,7 @@
       </c>
       <c r="F48" s="1">
         <f>+E47</f>
-        <v>7</v>
+        <v>2103030</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
@@ -2405,7 +2860,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A4CC4316-403F-44B9-B171-4AA285666A4A}"/>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{24E25306-3A93-4130-892D-72D93584D0AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Module 19 - Taxation Current Tax.xlsx
+++ b/Module 19 - Taxation Current Tax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="451" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A8CFC48-091C-4BFB-9D3E-88F5C6CC7629}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E41AE22-7C37-4A34-A7F1-46C22127F97E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2325" windowWidth="28800" windowHeight="14370" firstSheet="1" activeTab="5" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="345" yWindow="4395" windowWidth="15360" windowHeight="10530" firstSheet="2" activeTab="5" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="WSE19.2" sheetId="4" r:id="rId4"/>
     <sheet name="WSE19.3" sheetId="5" r:id="rId5"/>
     <sheet name="WSE19.4" sheetId="6" r:id="rId6"/>
-    <sheet name="WSE19.4 (2)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
   <si>
     <t>Main</t>
   </si>
@@ -363,6 +362,33 @@
   </si>
   <si>
     <t>dr - finance cost</t>
+  </si>
+  <si>
+    <t>opening creditor</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>SPL Finance</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>TTP</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>dr - current tax paayble</t>
+  </si>
+  <si>
+    <t>acutal</t>
+  </si>
+  <si>
+    <t>cr - SPL</t>
   </si>
 </sst>
 </file>
@@ -393,12 +419,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -425,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -434,6 +466,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -775,55 +811,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>81052</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3558BC56-337C-46F1-8A84-54642B3C0B72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="448236"/>
-          <a:ext cx="3657600" cy="3976216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1150,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -1484,7 +1471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834E91D4-F20B-416E-BD17-5D89A5DE4047}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1677,28 +1664,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAA8EF9-1A2A-49B0-A74D-76D6EA0E67B0}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
@@ -1706,7 +1695,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1714,12 +1703,19 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1731,8 +1727,9 @@
         <f ca="1">_xlfn.FORMULATEXT(D8)</f>
         <v>=+C3*0.19</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>54</v>
       </c>
@@ -1740,14 +1737,15 @@
         <f>+D8/4</f>
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
@@ -1756,7 +1754,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1765,7 +1763,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1794,6 +1792,95 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2800</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="4">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="1">
+        <v>750</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="4">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="1">
+        <v>700</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="4">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="5">
+        <f>+C38-C39</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="4">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1">
+        <f>133*2</f>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1807,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB747B5-4E7B-44F4-8069-1F8DB99CDDBF}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1868,40 +1955,84 @@
     <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="4">
         <v>43769</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>217</v>
+      </c>
+      <c r="H22" s="9">
+        <v>191</v>
+      </c>
+      <c r="I22" s="9">
+        <v>191</v>
+      </c>
+      <c r="J22" s="1">
+        <v>196</v>
+      </c>
+      <c r="K22" s="1">
+        <v>10</v>
+      </c>
+      <c r="L22" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="G23" s="9">
+        <v>5</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="1">
         <v>217</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,8 +2042,9 @@
       <c r="D25" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
@@ -1924,17 +2056,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B32" s="4">
         <v>43404</v>
       </c>
@@ -2125,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5B0155-9DA3-41ED-8DA0-E07EB4C347E3}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2509,361 +2641,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AFD7D2-C6B7-4B01-96C5-98FEF86BDC42}">
-  <dimension ref="A1:F76"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="4">
-        <v>43830</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1051600</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2103200</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="4">
-        <v>43465</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="1">
-        <v>170</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="4">
-        <v>43465</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="1">
-        <f>87-40</f>
-        <v>47</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="4">
-        <v>43769</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="1">
-        <v>80</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="5">
-        <f>+D38-D39+D40</f>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="1">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E44" s="1">
-        <f>+C35</f>
-        <v>2103200</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="1">
-        <f>+E44-E43</f>
-        <v>2103030</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="1">
-        <f>+E45</f>
-        <v>2103030</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="1">
-        <f>+E47</f>
-        <v>2103030</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E51" s="1">
-        <f>+E43</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F52" s="1">
-        <f>+E51</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E55" s="1">
-        <f>+D40</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" s="1">
-        <f>+D74</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="1">
-        <f>+D75</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C58" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F58" s="1">
-        <f>-D76</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="1">
-        <f>+D75</f>
-        <v>32</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E63" s="1">
-        <f>+F56</f>
-        <v>40</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="1">
-        <f>+E55</f>
-        <v>80</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E66" s="1">
-        <f>+F58</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="1">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" s="6">
-        <f>+E66*E67</f>
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E71" s="6">
-        <f>+E68+E62</f>
-        <v>33.520000000000003</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="4">
-        <v>43465</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="1">
-        <v>40</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D75" s="1">
-        <v>32</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="4"/>
-      <c r="D76" s="1">
-        <f>+D75-D74</f>
-        <v>-8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{24E25306-3A93-4130-892D-72D93584D0AC}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/Module 19 - Taxation Current Tax.xlsx
+++ b/Module 19 - Taxation Current Tax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="578" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E41AE22-7C37-4A34-A7F1-46C22127F97E}"/>
+  <xr:revisionPtr revIDLastSave="722" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2323EEF7-4DA3-4CE1-B50A-BA3BD0D88637}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4395" windowWidth="15360" windowHeight="10530" firstSheet="2" activeTab="5" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="5" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
   <si>
     <t>Main</t>
   </si>
@@ -389,6 +389,60 @@
   </si>
   <si>
     <t>cr - SPL</t>
+  </si>
+  <si>
+    <t>paid out in the year</t>
+  </si>
+  <si>
+    <t>over-provision</t>
+  </si>
+  <si>
+    <t>cr - SPL tax</t>
+  </si>
+  <si>
+    <t>dr - tax payable</t>
+  </si>
+  <si>
+    <t>unwinde of PY provision</t>
+  </si>
+  <si>
+    <t>Payments of corporation tax for the year to 31 December 20X8</t>
+  </si>
+  <si>
+    <t>Refund of overpaid corporation tax for year to 31 December 20X7</t>
+  </si>
+  <si>
+    <t>Payment of interest on late payment of corporation tax</t>
+  </si>
+  <si>
+    <t>Payments of corporation tax for the year to 31 December 20X9</t>
+  </si>
+  <si>
+    <t>interest received on the overpayment amounts</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>expnse</t>
+  </si>
+  <si>
+    <t>net interest expense</t>
+  </si>
+  <si>
+    <t>dr - SPL finance expense</t>
+  </si>
+  <si>
+    <t>cr - SPl tax</t>
+  </si>
+  <si>
+    <t>being correction to corporation tax paid for year ended 31/11/18</t>
+  </si>
+  <si>
+    <t>being interest on corporation tax payment and receipt re-allocated</t>
   </si>
 </sst>
 </file>
@@ -419,7 +473,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,6 +483,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -470,6 +530,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -808,6 +869,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590021</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>96599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C2D0F4-45FC-AA6A-8C96-E674794DAEEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="610914" y="13400690"/>
+          <a:ext cx="7973538" cy="247685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2255,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5B0155-9DA3-41ED-8DA0-E07EB4C347E3}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2601,37 +2706,243 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D78" s="1">
         <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="1">
+        <f>+D78-D79</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D85" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D86" s="1">
-        <f>+D84-D85</f>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="1">
+        <f>+D93-D94</f>
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91" s="1" t="s">
-        <v>104</v>
-      </c>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E97" s="1">
+        <f>+D95</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C98" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F98" s="1">
+        <f>+E97</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E101" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F102" s="1">
+        <f>+E101</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D106" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D108" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D109" s="1">
+        <f>SUM(D106:D108)</f>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="9">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D112" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D116" s="1">
+        <f>-D111</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D117" s="1">
+        <f>+D112</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="1">
+        <f>+D116-D117</f>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E121" s="1">
+        <f>+D117</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C122" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" s="1">
+        <f>+D116</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F123" s="1">
+        <f>+E121-F122</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Module 19 - Taxation Current Tax.xlsx
+++ b/Module 19 - Taxation Current Tax.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="722" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2323EEF7-4DA3-4CE1-B50A-BA3BD0D88637}"/>
+  <xr:revisionPtr revIDLastSave="759" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{284C5148-FA12-43FD-9344-1A5D7FAB6540}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="5025" windowWidth="28800" windowHeight="15435" firstSheet="2" activeTab="5" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="12420" windowHeight="11385" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
   <si>
     <t>Main</t>
   </si>
@@ -443,12 +443,27 @@
   </si>
   <si>
     <t>being interest on corporation tax payment and receipt re-allocated</t>
+  </si>
+  <si>
+    <t>the interest and any deferred tax element should not be posted to current tax SPL account</t>
+  </si>
+  <si>
+    <t>tax payable is an accounting estimate</t>
+  </si>
+  <si>
+    <t>tax benefit for a atx loss that can be carried back to a prior period is an asset</t>
+  </si>
+  <si>
+    <t>Accounting period is always 12m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]\(#,##0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -531,6 +546,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -555,13 +572,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>612912</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>29271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -599,14 +616,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>579723</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -643,14 +660,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>150394</xdr:rowOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>55826</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>54519</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -687,14 +704,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>88012</xdr:rowOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>88011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -731,13 +748,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>86494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -763,6 +780,94 @@
         <a:xfrm>
           <a:off x="612321" y="15906751"/>
           <a:ext cx="3673929" cy="2930386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>35813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920551FB-3CCC-B07B-FB83-BBFCDC99BDCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612914" y="1990509"/>
+          <a:ext cx="3677478" cy="1011133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>33129</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>80370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55746FCF-6DC5-4382-8AFF-2EA55EFEB7D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="612913" y="12904303"/>
+          <a:ext cx="3677478" cy="3178067"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,10 +1318,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,10 +1346,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE280A1E-8B72-49D9-B517-DB7D6EA724FF}">
-  <dimension ref="A1:F103"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="D99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1281,284 +1388,379 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="3">
-        <v>45121</v>
-      </c>
-      <c r="D40" s="1">
-        <f>+$E$39/4</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C41" s="3">
-        <v>45213</v>
-      </c>
-      <c r="D41" s="1">
-        <f>+$E$39/4</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C42" s="3"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="1">
-        <f>SUM(D40:D41)</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="1">
-        <f>+E45</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="1">
-        <f>+E45</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="1">
-        <f>+E49</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3">
+        <v>45121</v>
+      </c>
+      <c r="D53" s="11">
+        <f>+$E$52/4</f>
+        <v>750</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="C54" s="3">
+        <v>45213</v>
+      </c>
+      <c r="D54" s="11">
+        <f>+$E$52/4</f>
+        <v>750</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="4">
-        <v>44926</v>
-      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="1">
-        <f>+F50</f>
+        <v>20</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11">
+        <f>SUM(D53:D54)</f>
+        <v>1500</v>
+      </c>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11">
+        <f>+E58</f>
         <v>1500</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11">
+        <f>+E58</f>
+        <v>1500</v>
+      </c>
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11">
+        <f>+E62</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11">
+        <f>+F63</f>
+        <v>1500</v>
+      </c>
+      <c r="F71" s="11"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="1">
+      <c r="D73" s="11"/>
+      <c r="E73" s="11">
         <v>9200</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+      <c r="F73" s="11"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="1">
+      <c r="D74" s="11"/>
+      <c r="E74" s="11">
         <v>-3000</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="1" t="s">
+      <c r="F74" s="11"/>
+    </row>
+    <row r="75" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E62" s="5">
-        <f>SUM(E60:E61)</f>
+      <c r="D75" s="11"/>
+      <c r="E75" s="12">
+        <f>SUM(E73:E74)</f>
         <v>6200</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+      <c r="F75" s="11"/>
+    </row>
+    <row r="76" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B114" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E114" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C81" s="1" t="s">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C115" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F115" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D118" s="1">
         <v>2</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D85" s="1">
-        <f>+D84/4*4000</f>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D119" s="11">
+        <f>+D118/4*4000</f>
         <v>2000</v>
       </c>
-      <c r="E85" s="1" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(D85)</f>
-        <v>=+D84/4*4000</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B87" s="1" t="s">
+      <c r="E119" s="1" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D119)</f>
+        <v>=+D118/4*4000</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E87" s="1">
-        <f>+D85</f>
+      <c r="E121" s="11">
+        <f>+D119</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C88" s="1" t="s">
+      <c r="F121" s="11"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C122" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F88" s="1">
-        <f>+E87</f>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11">
+        <f>+E121</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="1" t="s">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="1" t="s">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1574,6 +1776,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834E91D4-F20B-416E-BD17-5D89A5DE4047}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1769,6 +1972,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFAA8EF9-1A2A-49B0-A74D-76D6EA0E67B0}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1999,6 +2203,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB747B5-4E7B-44F4-8069-1F8DB99CDDBF}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -2360,9 +2565,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5B0155-9DA3-41ED-8DA0-E07EB4C347E3}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>

--- a/Module 19 - Taxation Current Tax.xlsx
+++ b/Module 19 - Taxation Current Tax.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="759" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{284C5148-FA12-43FD-9344-1A5D7FAB6540}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="12420" windowHeight="11385" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="4395" yWindow="6015" windowWidth="12420" windowHeight="11385" activeTab="1" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1321,7 +1321,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -1349,8 +1349,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView topLeftCell="D99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1779,9 +1779,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1975,9 +1973,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2207,7 +2203,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>

--- a/Module 19 - Taxation Current Tax.xlsx
+++ b/Module 19 - Taxation Current Tax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="759" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{284C5148-FA12-43FD-9344-1A5D7FAB6540}"/>
+  <xr:revisionPtr revIDLastSave="784" documentId="8_{A7061520-38C6-4548-A697-98A98EC967F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93767D46-3462-4EAF-A83F-FE485ADDBE9D}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="6015" windowWidth="12420" windowHeight="11385" activeTab="1" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="6675" windowHeight="6945" activeTab="3" xr2:uid="{5DE79D18-A7DC-45EE-96BD-1AC3843D2D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="142">
   <si>
     <t>Main</t>
   </si>
@@ -455,6 +455,18 @@
   </si>
   <si>
     <t>Accounting period is always 12m</t>
+  </si>
+  <si>
+    <t>WSE19.1</t>
+  </si>
+  <si>
+    <t>WSE19.2</t>
+  </si>
+  <si>
+    <t>WSE19.3</t>
+  </si>
+  <si>
+    <t>WSE19.4</t>
   </si>
 </sst>
 </file>
@@ -1319,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A654F59E-9369-4B2E-B0F0-3CCDE6E1782C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G39" sqref="G39:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,14 +1342,36 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" location="'Module 19'!A1" display="Module 19" xr:uid="{F2A04406-9CAA-42C4-A031-E55E8E472A1D}"/>
+    <hyperlink ref="C2" location="WSE19.1!A1" display="WSE19.1" xr:uid="{52DF95F2-3918-44F7-B157-BECE846D75F3}"/>
+    <hyperlink ref="C3" location="WSE19.2!A1" display="WSE19.2" xr:uid="{2B083BFD-F05F-4D78-910A-6015B005AD4A}"/>
+    <hyperlink ref="C4" location="WSE19.3!A1" display="WSE19.3" xr:uid="{DA7D70B8-B1F3-4C0F-A4AE-69102250075E}"/>
+    <hyperlink ref="C5" location="WSE19.4!A1" display="WSE19.4" xr:uid="{BA698165-0B1A-4964-A522-930F1470D7AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1349,8 +1383,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1813,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1973,7 +2009,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2202,8 +2240,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2565,7 +2603,7 @@
   <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+      <selection activeCell="G39" sqref="G39:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
